--- a/Stilling Basin Design/Delamual Workout Example/Normal_depth_calculation/Data_Summary_Polder_43_2c.xlsx
+++ b/Stilling Basin Design/Delamual Workout Example/Normal_depth_calculation/Data_Summary_Polder_43_2c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Designs_All\Stilling Basin Design\Delamual Workout Example\Normal_depth_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB230D8-AE6F-49CB-ACDC-AA25393CFED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FB3261-A935-43C1-BACF-367A8DEF83D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Parameter</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>Gabura</t>
+  </si>
+  <si>
+    <t>Sora_9</t>
+  </si>
+  <si>
+    <t>Sora_10</t>
   </si>
 </sst>
 </file>
@@ -216,12 +225,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,10 +616,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFD861C-0308-4149-B4E9-97FF27541CA9}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,26 +813,72 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2995</v>
       </c>
       <c r="C9" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>5.81</v>
       </c>
       <c r="G9" s="1">
-        <v>6</v>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2285</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7.81</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3186,10 +3240,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3197,28 +3251,27 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3226,19 +3279,19 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3246,10 +3299,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1"/>

--- a/Stilling Basin Design/Delamual Workout Example/Normal_depth_calculation/Data_Summary_Polder_43_2c.xlsx
+++ b/Stilling Basin Design/Delamual Workout Example/Normal_depth_calculation/Data_Summary_Polder_43_2c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Designs_All\Stilling Basin Design\Delamual Workout Example\Normal_depth_calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FB3261-A935-43C1-BACF-367A8DEF83D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F042E05-7786-4907-B892-50FC3352D335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,19 @@
     <sheet name="Data_Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Channel_Data" sheetId="4" r:id="rId3"/>
-    <sheet name="Discharge_For_deliveryy_curve" sheetId="7" r:id="rId4"/>
-    <sheet name="Sample_calculation" sheetId="6" r:id="rId5"/>
-    <sheet name="Input_Params" sheetId="5" r:id="rId6"/>
-    <sheet name="structure_name" sheetId="2" r:id="rId7"/>
+    <sheet name="Channel_routing" sheetId="16" r:id="rId4"/>
+    <sheet name="Discharge_For_deliveryy_curve" sheetId="7" r:id="rId5"/>
+    <sheet name="Sample_calculation" sheetId="6" r:id="rId6"/>
+    <sheet name="Input_Params" sheetId="5" r:id="rId7"/>
+    <sheet name="structure_name" sheetId="2" r:id="rId8"/>
+    <sheet name="Channel_Data (2)" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId12"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId13"/>
+    <sheet name="Sheet7" sheetId="13" r:id="rId14"/>
+    <sheet name="Sheet8" sheetId="14" r:id="rId15"/>
+    <sheet name="Sheet9" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>Parameter</t>
   </si>
@@ -190,6 +199,111 @@
   </si>
   <si>
     <t>Sora_10</t>
+  </si>
+  <si>
+    <t>a-b</t>
+  </si>
+  <si>
+    <t>b-c</t>
+  </si>
+  <si>
+    <t>c-d</t>
+  </si>
+  <si>
+    <t>d-e</t>
+  </si>
+  <si>
+    <t>e-a*</t>
+  </si>
+  <si>
+    <t>del_z</t>
+  </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>z2</t>
+  </si>
+  <si>
+    <t>cumulative catchment Area</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>dranage_level</t>
+  </si>
+  <si>
+    <t>del_x</t>
+  </si>
+  <si>
+    <t>del_x/h</t>
+  </si>
+  <si>
+    <t>delx_x/h^0.315</t>
+  </si>
+  <si>
+    <t>0.408*(sX/h)</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>del_0</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>a*-e</t>
+  </si>
+  <si>
+    <t>e-d</t>
+  </si>
+  <si>
+    <t>d-c</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>c-b</t>
+  </si>
+  <si>
+    <t>b-a</t>
+  </si>
+  <si>
+    <t>h1_prime</t>
+  </si>
+  <si>
+    <t>h2_prime</t>
+  </si>
+  <si>
+    <t>h(n)</t>
+  </si>
+  <si>
+    <t>cum_x</t>
+  </si>
+  <si>
+    <t>a-e</t>
+  </si>
+  <si>
+    <t>e-i</t>
+  </si>
+  <si>
+    <t>i-l</t>
+  </si>
+  <si>
+    <t>l-m</t>
+  </si>
+  <si>
+    <t>n-o</t>
+  </si>
+  <si>
+    <t>o-a*</t>
+  </si>
+  <si>
+    <t>cum_draina_area</t>
   </si>
 </sst>
 </file>
@@ -205,15 +319,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,15 +347,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,6 +737,96 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9872A5-2A63-4FE2-AFA0-9764D684C68D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB57AC6-E558-41AD-A232-8E5FD56E628A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E209EB48-8ECF-489E-88D4-F8360E4AD550}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3792977-2979-4856-9591-54C862B78EAB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DF6F64-96A6-41CA-B754-83571FF128FD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C3030D-4DE8-4658-BCF8-4275E2262C7D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8C24C9-068D-40B4-882F-D36BAAF849DD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB0010D-5B3B-454B-AD2C-CEFFD7FBE4EE}">
   <dimension ref="A1:A3"/>
@@ -616,269 +860,219 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFD861C-0308-4149-B4E9-97FF27541CA9}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="1">
-        <v>200</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.5000000000000001E-4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="D2" s="1">
-        <v>2.5</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E2" s="1">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
-        <v>4.5</v>
-      </c>
       <c r="G2" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16.61</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="J2" s="1">
+        <f>D2*B2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <f>I2+J2</f>
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1610</v>
-      </c>
-      <c r="C3" s="1">
+        <v>79</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1.32</v>
+      </c>
+      <c r="J3" s="1">
+        <f>D3*B3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K6" si="0">I3+J3</f>
+        <v>-1.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="D3" s="1">
-        <v>6.75</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
-        <v>22.76</v>
-      </c>
-      <c r="G3" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1040</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6.25</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.96</v>
+      </c>
+      <c r="J4" s="1">
+        <f>D4*B4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="D5" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
-        <v>14.22</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-0.54</v>
+      </c>
+      <c r="J5" s="1">
+        <f>D5*B5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="D6" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
-        <v>11.56</v>
-      </c>
-      <c r="G5" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1">
-        <v>590</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>8.34</v>
-      </c>
       <c r="G6" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-0.42</v>
+      </c>
+      <c r="J6" s="1">
+        <f>D6*B6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1740</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5.48</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1900</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3.22</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2995</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5.81</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2285</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.12</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4100</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>7.81</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -887,6 +1081,1211 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68E81DE-2F50-4210-AEA4-ADD56042A7B0}">
+  <dimension ref="A1:M46"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>16.61</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="J2" s="1">
+        <f>D2*B2</f>
+        <v>0.48</v>
+      </c>
+      <c r="K2" s="1">
+        <f>I2+J2</f>
+        <v>-1.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1">
+        <v>900</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1655</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1.32</v>
+      </c>
+      <c r="J3" s="1">
+        <f>D3*B3</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K6" si="0">I3+J3</f>
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C4" s="1">
+        <v>870</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.96</v>
+      </c>
+      <c r="J4" s="1">
+        <f>D4*B4</f>
+        <v>0.42</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1">
+        <v>600</v>
+      </c>
+      <c r="C5" s="1">
+        <v>790</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.21</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-0.54</v>
+      </c>
+      <c r="J5" s="1">
+        <f>D5*B5</f>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2300</v>
+      </c>
+      <c r="C6" s="1">
+        <v>710</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-0.42</v>
+      </c>
+      <c r="J6" s="1">
+        <f>D6*B6</f>
+        <v>0.23</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.18999999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+      <c r="K8" s="1">
+        <f>K6+0.96</f>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G11" s="3">
+        <v>600</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I11" s="3">
+        <v>900</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="3">
+        <f>F11</f>
+        <v>2300</v>
+      </c>
+      <c r="G13" s="3">
+        <f>F13+G11</f>
+        <v>2900</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" ref="H13:J13" si="1">G13+H11</f>
+        <v>4300</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
+        <v>5200</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="1"/>
+        <v>6800</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" ref="G13:K13" si="2">K11</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="5">
+        <f>F11*F12</f>
+        <v>0.23</v>
+      </c>
+      <c r="G14" s="5">
+        <f>G11*G12</f>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="H14" s="5">
+        <f>H11*H12</f>
+        <v>0.42</v>
+      </c>
+      <c r="I14" s="5">
+        <f>I11*I12</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="J14" s="5">
+        <f>J11*J12</f>
+        <v>0.48</v>
+      </c>
+      <c r="K14" s="5">
+        <f>K11*K12</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="5">
+        <v>-0.19</v>
+      </c>
+      <c r="G15" s="5">
+        <v>-0.42</v>
+      </c>
+      <c r="H15" s="5">
+        <f>G16</f>
+        <v>-0.54</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" ref="I15:K15" si="3">H16</f>
+        <v>-0.96</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.32</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.8</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="5">
+        <v>-0.42</v>
+      </c>
+      <c r="G16" s="5">
+        <v>-0.54</v>
+      </c>
+      <c r="H16" s="5">
+        <f>H15-H14</f>
+        <v>-0.96</v>
+      </c>
+      <c r="I16" s="5">
+        <f>I15-I14</f>
+        <v>-1.32</v>
+      </c>
+      <c r="J16" s="5">
+        <f>J15-J14</f>
+        <v>-1.8</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="5">
+        <f>F15+F10</f>
+        <v>0.77</v>
+      </c>
+      <c r="G17" s="5">
+        <f>G15+G10</f>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="H17" s="5">
+        <f>H15+H10</f>
+        <v>0.48</v>
+      </c>
+      <c r="I17" s="5">
+        <f>I15+I10</f>
+        <v>0.24</v>
+      </c>
+      <c r="J17" s="5">
+        <f>J15+J10</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K17" s="5">
+        <f>K15+K10</f>
+        <v>-1.8</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="5">
+        <f>F16+F10</f>
+        <v>0.54</v>
+      </c>
+      <c r="G18" s="5">
+        <f>G16+G10</f>
+        <v>0.54</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" ref="G18:K18" si="4">H16+H10</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.17999999999999994</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="G19" s="5">
+        <f>F26</f>
+        <v>1.1665375927178436</v>
+      </c>
+      <c r="H19" s="5">
+        <f>G26</f>
+        <v>1.1449903761771441</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" ref="I19:K19" si="5">H26</f>
+        <v>1.2220732177466069</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="5"/>
+        <v>1.3291246414034792</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3776418657142873</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="7">
+        <f>F19-F17</f>
+        <v>0.42999999999999994</v>
+      </c>
+      <c r="G20" s="7">
+        <f>G19-G17</f>
+        <v>0.50653759271784349</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" ref="H20:K20" si="6">H19-H17</f>
+        <v>0.66499037617714407</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="6"/>
+        <v>0.98207321774660694</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="6"/>
+        <v>1.0291246414034791</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="6"/>
+        <v>3.1776418657142873</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="5">
+        <f>F20/F10</f>
+        <v>0.44791666666666663</v>
+      </c>
+      <c r="G21" s="5">
+        <f>G20/G10</f>
+        <v>0.46901628955355873</v>
+      </c>
+      <c r="H21" s="5">
+        <f>H20/H10</f>
+        <v>0.65195134919327846</v>
+      </c>
+      <c r="I21" s="5">
+        <f>I20/I10</f>
+        <v>0.81839434812217249</v>
+      </c>
+      <c r="J21" s="5">
+        <f>J20/J10</f>
+        <v>0.63526212432313522</v>
+      </c>
+      <c r="K21" s="5" t="e">
+        <f>K20/K10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="5">
+        <f>F21^0.315</f>
+        <v>0.7764743701182647</v>
+      </c>
+      <c r="G22" s="5">
+        <f>G21^0.315</f>
+        <v>0.78781491176248664</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" ref="H22:K22" si="7">H21^0.315</f>
+        <v>0.87393228682461255</v>
+      </c>
+      <c r="I22" s="5">
+        <f>I21^0.315</f>
+        <v>0.93882193000106307</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="7"/>
+        <v>0.8668225149346851</v>
+      </c>
+      <c r="K22" s="5" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="5">
+        <f>(F14/F10)*0.408</f>
+        <v>9.7750000000000004E-2</v>
+      </c>
+      <c r="G23" s="5">
+        <f>(G14/G10)*0.408</f>
+        <v>4.5333333333333337E-2</v>
+      </c>
+      <c r="H23" s="5">
+        <f>(H14/H10)*0.408</f>
+        <v>0.16799999999999998</v>
+      </c>
+      <c r="I23" s="5">
+        <f>(I14/I10)*0.408</f>
+        <v>0.12240000000000001</v>
+      </c>
+      <c r="J23" s="5">
+        <f>(J14/J10)*0.408</f>
+        <v>0.12088888888888888</v>
+      </c>
+      <c r="K23" s="5" t="e">
+        <f>(K14/K10)*0.408</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="5">
+        <f>F22+F23</f>
+        <v>0.8742243701182647</v>
+      </c>
+      <c r="G24" s="5">
+        <f>G22+G23</f>
+        <v>0.83314824509581997</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" ref="H24:K24" si="8">H22+H23</f>
+        <v>1.0419322868246126</v>
+      </c>
+      <c r="I24" s="5">
+        <f>I22+I23</f>
+        <v>1.061221930001063</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="8"/>
+        <v>0.98771140382357392</v>
+      </c>
+      <c r="K24" s="5" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="7">
+        <f>(F24^(1/0.315))*F10</f>
+        <v>0.62653759271784371</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" ref="G25:J25" si="9">(G24^(1/0.315))*G10</f>
+        <v>0.60499037617714402</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1620732177466069</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="9"/>
+        <v>1.4491246414034793</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="9"/>
+        <v>1.5576418657142872</v>
+      </c>
+      <c r="K25" s="8" t="e">
+        <f t="shared" ref="K25" si="10">K24^(1/0.315)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="5">
+        <f>F16+F10+F25</f>
+        <v>1.1665375927178436</v>
+      </c>
+      <c r="G26" s="5">
+        <f>G16+G10+G25</f>
+        <v>1.1449903761771441</v>
+      </c>
+      <c r="H26" s="5">
+        <f>H16+H10+H25</f>
+        <v>1.2220732177466069</v>
+      </c>
+      <c r="I26" s="5">
+        <f>I16+I10+I25</f>
+        <v>1.3291246414034792</v>
+      </c>
+      <c r="J26" s="5">
+        <f>J16+J10+J25</f>
+        <v>1.3776418657142873</v>
+      </c>
+      <c r="K26" s="6" t="e">
+        <f>K16+K10+K25</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1.08</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G31" s="3">
+        <v>600</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I31" s="3">
+        <v>900</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="3">
+        <f>F31</f>
+        <v>2300</v>
+      </c>
+      <c r="G33" s="3">
+        <f>F33+G31</f>
+        <v>2900</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" ref="H33:J33" si="11">G33+H31</f>
+        <v>4300</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="11"/>
+        <v>5200</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="11"/>
+        <v>6800</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" ref="K33" si="12">K31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="5">
+        <f>F31*F32</f>
+        <v>0.23</v>
+      </c>
+      <c r="G34" s="5">
+        <f>G31*G32</f>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="H34" s="5">
+        <f>H31*H32</f>
+        <v>0.42</v>
+      </c>
+      <c r="I34" s="5">
+        <f>I31*I32</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="J34" s="5">
+        <f>J31*J32</f>
+        <v>0.48</v>
+      </c>
+      <c r="K34" s="5">
+        <f>K31*K32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="5">
+        <v>-0.19</v>
+      </c>
+      <c r="G35" s="5">
+        <v>-0.42</v>
+      </c>
+      <c r="H35" s="5">
+        <f>G36</f>
+        <v>-0.54</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" ref="I35:K35" si="13">H36</f>
+        <v>-0.96</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.32</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E36" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="5">
+        <v>-0.42</v>
+      </c>
+      <c r="G36" s="5">
+        <v>-0.54</v>
+      </c>
+      <c r="H36" s="5">
+        <f>H35-H34</f>
+        <v>-0.96</v>
+      </c>
+      <c r="I36" s="5">
+        <f>I35-I34</f>
+        <v>-1.32</v>
+      </c>
+      <c r="J36" s="5">
+        <f>J35-J34</f>
+        <v>-1.8</v>
+      </c>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="5">
+        <f>F35+F30</f>
+        <v>0.77</v>
+      </c>
+      <c r="G37" s="5">
+        <f>G35+G30</f>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="H37" s="5">
+        <f>H35+H30</f>
+        <v>0.48</v>
+      </c>
+      <c r="I37" s="5">
+        <f>I35+I30</f>
+        <v>0.24</v>
+      </c>
+      <c r="J37" s="5">
+        <f>J35+J30</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K37" s="5">
+        <f>K35+K30</f>
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="5">
+        <f>F36+F30</f>
+        <v>0.54</v>
+      </c>
+      <c r="G38" s="5">
+        <f>G36+G30</f>
+        <v>0.54</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" ref="H38:K38" si="14">H36+H30</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.17999999999999994</v>
+      </c>
+      <c r="K38" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="G39" s="5">
+        <f>F46</f>
+        <v>1.1665375927178436</v>
+      </c>
+      <c r="H39" s="5">
+        <f>G46</f>
+        <v>1.1449903761771441</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" ref="I39:K39" si="15">H46</f>
+        <v>1.2220732177466069</v>
+      </c>
+      <c r="J39" s="5">
+        <f t="shared" si="15"/>
+        <v>1.3291246414034792</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="15"/>
+        <v>1.3776418657142873</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E40" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="7">
+        <f>F39-F37</f>
+        <v>0.42999999999999994</v>
+      </c>
+      <c r="G40" s="7">
+        <f>G39-G37</f>
+        <v>0.50653759271784349</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" ref="H40" si="16">H39-H37</f>
+        <v>0.66499037617714407</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" ref="I40" si="17">I39-I37</f>
+        <v>0.98207321774660694</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" ref="J40" si="18">J39-J37</f>
+        <v>1.0291246414034791</v>
+      </c>
+      <c r="K40" s="7">
+        <f t="shared" ref="K40" si="19">K39-K37</f>
+        <v>3.1776418657142873</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E41" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="5">
+        <f>F40/F30</f>
+        <v>0.44791666666666663</v>
+      </c>
+      <c r="G41" s="5">
+        <f>G40/G30</f>
+        <v>0.46901628955355873</v>
+      </c>
+      <c r="H41" s="5">
+        <f>H40/H30</f>
+        <v>0.65195134919327846</v>
+      </c>
+      <c r="I41" s="5">
+        <f>I40/I30</f>
+        <v>0.81839434812217249</v>
+      </c>
+      <c r="J41" s="5">
+        <f>J40/J30</f>
+        <v>0.63526212432313522</v>
+      </c>
+      <c r="K41" s="5" t="e">
+        <f>K40/K30</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="5">
+        <f>F41^0.315</f>
+        <v>0.7764743701182647</v>
+      </c>
+      <c r="G42" s="5">
+        <f>G41^0.315</f>
+        <v>0.78781491176248664</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" ref="H42" si="20">H41^0.315</f>
+        <v>0.87393228682461255</v>
+      </c>
+      <c r="I42" s="5">
+        <f>I41^0.315</f>
+        <v>0.93882193000106307</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" ref="J42" si="21">J41^0.315</f>
+        <v>0.8668225149346851</v>
+      </c>
+      <c r="K42" s="5" t="e">
+        <f t="shared" ref="K42" si="22">K41^0.315</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E43" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="5">
+        <f>(F34/F30)*0.408</f>
+        <v>9.7750000000000004E-2</v>
+      </c>
+      <c r="G43" s="5">
+        <f>(G34/G30)*0.408</f>
+        <v>4.5333333333333337E-2</v>
+      </c>
+      <c r="H43" s="5">
+        <f>(H34/H30)*0.408</f>
+        <v>0.16799999999999998</v>
+      </c>
+      <c r="I43" s="5">
+        <f>(I34/I30)*0.408</f>
+        <v>0.12240000000000001</v>
+      </c>
+      <c r="J43" s="5">
+        <f>(J34/J30)*0.408</f>
+        <v>0.12088888888888888</v>
+      </c>
+      <c r="K43" s="5" t="e">
+        <f>(K34/K30)*0.408</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E44" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="5">
+        <f>F42+F43</f>
+        <v>0.8742243701182647</v>
+      </c>
+      <c r="G44" s="5">
+        <f>G42+G43</f>
+        <v>0.83314824509581997</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" ref="H44" si="23">H42+H43</f>
+        <v>1.0419322868246126</v>
+      </c>
+      <c r="I44" s="5">
+        <f>I42+I43</f>
+        <v>1.061221930001063</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" ref="J44" si="24">J42+J43</f>
+        <v>0.98771140382357392</v>
+      </c>
+      <c r="K44" s="5" t="e">
+        <f t="shared" ref="K44" si="25">K42+K43</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E45" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="7">
+        <f>(F44^(1/0.315))*F30</f>
+        <v>0.62653759271784371</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" ref="G45" si="26">(G44^(1/0.315))*G30</f>
+        <v>0.60499037617714402</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" ref="H45" si="27">(H44^(1/0.315))*H30</f>
+        <v>1.1620732177466069</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" ref="I45" si="28">(I44^(1/0.315))*I30</f>
+        <v>1.4491246414034793</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" ref="J45" si="29">(J44^(1/0.315))*J30</f>
+        <v>1.5576418657142872</v>
+      </c>
+      <c r="K45" s="8" t="e">
+        <f t="shared" ref="K45" si="30">K44^(1/0.315)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="5">
+        <f>F36+F30+F45</f>
+        <v>1.1665375927178436</v>
+      </c>
+      <c r="G46" s="5">
+        <f>G36+G30+G45</f>
+        <v>1.1449903761771441</v>
+      </c>
+      <c r="H46" s="5">
+        <f>H36+H30+H45</f>
+        <v>1.2220732177466069</v>
+      </c>
+      <c r="I46" s="5">
+        <f>I36+I30+I45</f>
+        <v>1.3291246414034792</v>
+      </c>
+      <c r="J46" s="5">
+        <f>J36+J30+J45</f>
+        <v>1.3776418657142873</v>
+      </c>
+      <c r="K46" s="6" t="e">
+        <f>K36+K30+K45</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8113FA72-ECFA-4CE2-9C0A-09F110ECAB1C}">
   <dimension ref="A1:A13"/>
   <sheetViews>
@@ -964,7 +2363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EC094D-B7DD-46A5-85DB-651AFF0F779E}">
   <dimension ref="A1:AC26"/>
   <sheetViews>
@@ -3225,7 +4624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DFF212-20C7-4E13-BF2A-F3D5AC9F12DB}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -3312,7 +4711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3877F959-6A5F-4DFA-A9A0-3E9BA524A6EB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -3338,4 +4737,276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAFD2A5-3B6F-4B8C-8DD8-695E9496B7FA}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1">
+        <v>200</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1610</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>22.76</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1040</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>14.22</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>11.56</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1">
+        <v>590</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8.34</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1740</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.48</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1900</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.22</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2995</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.81</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2285</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7.81</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>